--- a/server/LISTAS/ma/SOPORTE ZAMAC DISMAY.xlsx
+++ b/server/LISTAS/ma/SOPORTE ZAMAC DISMAY.xlsx
@@ -801,7 +801,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" s="21">

--- a/server/LISTAS/ma/SOPORTE ZAMAC DISMAY.xlsx
+++ b/server/LISTAS/ma/SOPORTE ZAMAC DISMAY.xlsx
@@ -801,7 +801,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" s="21">

--- a/server/LISTAS/ma/SOPORTE ZAMAC DISMAY.xlsx
+++ b/server/LISTAS/ma/SOPORTE ZAMAC DISMAY.xlsx
@@ -801,7 +801,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" s="21">
@@ -873,7 +873,7 @@
       </c>
       <c r="C23" s="18" t="n"/>
       <c r="D23" s="13" t="n">
-        <v>398</v>
+        <v>844</v>
       </c>
     </row>
     <row r="24" ht="19.5" customHeight="1" s="21">
@@ -889,7 +889,7 @@
       </c>
       <c r="C24" s="18" t="n"/>
       <c r="D24" s="13" t="n">
-        <v>398</v>
+        <v>844</v>
       </c>
     </row>
     <row r="25" ht="19.5" customHeight="1" s="21">
@@ -905,7 +905,7 @@
       </c>
       <c r="C25" s="18" t="n"/>
       <c r="D25" s="13" t="n">
-        <v>400</v>
+        <v>844</v>
       </c>
     </row>
     <row r="26" ht="19.5" customHeight="1" s="21">
@@ -921,7 +921,7 @@
       </c>
       <c r="C26" s="15" t="n"/>
       <c r="D26" s="13" t="n">
-        <v>398</v>
+        <v>844</v>
       </c>
     </row>
     <row r="27">
@@ -967,17 +967,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A7:D7"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/SOPORTE ZAMAC DISMAY.xlsx
+++ b/server/LISTAS/ma/SOPORTE ZAMAC DISMAY.xlsx
@@ -801,7 +801,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" s="21">

--- a/server/LISTAS/ma/SOPORTE ZAMAC DISMAY.xlsx
+++ b/server/LISTAS/ma/SOPORTE ZAMAC DISMAY.xlsx
@@ -801,7 +801,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" s="21">
@@ -967,17 +967,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A7:D7"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/SOPORTE ZAMAC DISMAY.xlsx
+++ b/server/LISTAS/ma/SOPORTE ZAMAC DISMAY.xlsx
@@ -801,7 +801,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" s="21">
@@ -967,17 +967,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/SOPORTE ZAMAC DISMAY.xlsx
+++ b/server/LISTAS/ma/SOPORTE ZAMAC DISMAY.xlsx
@@ -801,7 +801,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" s="21">
@@ -967,17 +967,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A7:D7"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/SOPORTE ZAMAC DISMAY.xlsx
+++ b/server/LISTAS/ma/SOPORTE ZAMAC DISMAY.xlsx
@@ -801,7 +801,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" s="21">
@@ -873,7 +873,7 @@
       </c>
       <c r="C23" s="18" t="n"/>
       <c r="D23" s="13" t="n">
-        <v>398</v>
+        <v>844</v>
       </c>
     </row>
     <row r="24" ht="19.5" customHeight="1" s="21">
@@ -889,7 +889,7 @@
       </c>
       <c r="C24" s="18" t="n"/>
       <c r="D24" s="13" t="n">
-        <v>398</v>
+        <v>844</v>
       </c>
     </row>
     <row r="25" ht="19.5" customHeight="1" s="21">
@@ -905,7 +905,7 @@
       </c>
       <c r="C25" s="18" t="n"/>
       <c r="D25" s="13" t="n">
-        <v>400</v>
+        <v>844</v>
       </c>
     </row>
     <row r="26" ht="19.5" customHeight="1" s="21">
@@ -921,7 +921,7 @@
       </c>
       <c r="C26" s="15" t="n"/>
       <c r="D26" s="13" t="n">
-        <v>398</v>
+        <v>844</v>
       </c>
     </row>
     <row r="27">
@@ -967,17 +967,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
